--- a/NumbersStats.xlsx
+++ b/NumbersStats.xlsx
@@ -391,7 +391,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
